--- a/Robot/www/partial_budget_notes.xlsx
+++ b/Robot/www/partial_budget_notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="800" windowWidth="25600" windowHeight="18480" tabRatio="500"/>
+    <workbookView xWindow="10140" yWindow="8200" windowWidth="25600" windowHeight="18480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>variable</t>
   </si>
@@ -208,6 +208,78 @@
   </si>
   <si>
     <t>tax_interest</t>
+  </si>
+  <si>
+    <t>Milk revenue from herd expansion</t>
+  </si>
+  <si>
+    <t>Milk revenue increase from increased milk output</t>
+  </si>
+  <si>
+    <t>Additional revenue from SCC change</t>
+  </si>
+  <si>
+    <t>Additional renuve due to turnover change</t>
+  </si>
+  <si>
+    <t>Additional revenue due to software's contribution</t>
+  </si>
+  <si>
+    <t>Cost reduction due to reduced heat detection labor</t>
+  </si>
+  <si>
+    <t>Cost reduction due to reduced milking &amp; chore labor</t>
+  </si>
+  <si>
+    <t>Additional cost due to herd expansion</t>
+  </si>
+  <si>
+    <t>Increased cost due to turnover change</t>
+  </si>
+  <si>
+    <t>Change in electricity, water, and chemical expenses</t>
+  </si>
+  <si>
+    <t>Annualized capital cost of milking system at the interest rate of its loan</t>
+  </si>
+  <si>
+    <t>Annualized capital cost of housing at the interest rate of its loan</t>
+  </si>
+  <si>
+    <t>Annualized capital cost of downpayments at hurdle rate</t>
+  </si>
+  <si>
+    <t>Annualized salvage value</t>
+  </si>
+  <si>
+    <t>Annualized tax obiligation at the average interest rate of loans</t>
+  </si>
+  <si>
+    <t>Annualized tax deduction on interest payments at the average interest rate of loans</t>
+  </si>
+  <si>
+    <t>Annualized tax deduction on depreciation at the average interest rate of loans</t>
+  </si>
+  <si>
+    <t>Annualization adjustment under WACC</t>
+  </si>
+  <si>
+    <t>Final result of annualized impact over the planning horizon</t>
+  </si>
+  <si>
+    <t>Intermediate result of annualized impact before tax calculcations</t>
+  </si>
+  <si>
+    <t>Adjustment used between Total-positive-minus-negative impact and annualized before-tax impact</t>
+  </si>
+  <si>
+    <t>Sum of increased revenues and decreased expenses</t>
+  </si>
+  <si>
+    <t>Sum of increased expenses and increased cost of capital</t>
+  </si>
+  <si>
+    <t>The difference between the total positive impacts and the total negative impacts</t>
   </si>
 </sst>
 </file>
@@ -269,8 +341,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,11 +359,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,12 +702,13 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -644,6 +729,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -652,6 +740,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -660,6 +751,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -668,6 +762,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -676,6 +773,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -684,6 +784,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -692,6 +795,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -708,6 +814,9 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -740,6 +849,9 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -748,6 +860,9 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
@@ -757,124 +872,169 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
